--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>是否完成</t>
   </si>
@@ -98,6 +98,12 @@
     <t>文本框</t>
   </si>
   <si>
+    <t>选项卡</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -105,6 +111,9 @@
   </si>
   <si>
     <t>顶部导航快速点击不切换url</t>
+  </si>
+  <si>
+    <t>搞掉了</t>
   </si>
   <si>
     <t>href="#"时左侧变色了</t>
@@ -118,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -133,10 +142,61 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +208,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -156,10 +223,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,105 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,19 +294,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +396,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,151 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,9 +542,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,50 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -614,17 +611,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +657,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,115 +675,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,14 +794,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,11 +1163,12 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375"/>
@@ -1166,103 +1176,103 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>43905</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>43905</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>43905</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>44276</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>44276</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>44276</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1270,274 +1280,277 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>44276</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>44276</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>44276</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>44276</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>44276</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>44276</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>44276</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>44278</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>44278</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:6">
       <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="4:6">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="2:6">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="4:6">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="4:6">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="4:6">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="4:6">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="4:6">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="A5:A21"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B15:B16"/>
@@ -1555,22 +1568,24 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="C3 C2 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1579,29 +1594,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>是否完成</t>
   </si>
@@ -38,6 +38,18 @@
     <t>grid</t>
   </si>
   <si>
+    <t>栅格需要完善，增加xs</t>
+  </si>
+  <si>
+    <t>xxl&gt;=1600</t>
+  </si>
+  <si>
+    <t>xl&gt;=1200</t>
+  </si>
+  <si>
+    <t>lg&gt;=992</t>
+  </si>
+  <si>
     <t>form</t>
   </si>
   <si>
@@ -53,9 +65,6 @@
     <t>禁用</t>
   </si>
   <si>
-    <t>加一个wrap标签</t>
-  </si>
-  <si>
     <t>select-单/多</t>
   </si>
   <si>
@@ -98,12 +107,78 @@
     <t>文本框</t>
   </si>
   <si>
+    <t>输入框提示</t>
+  </si>
+  <si>
     <t>选项卡</t>
   </si>
   <si>
     <t>table</t>
   </si>
   <si>
+    <t>分页有当前页及条数</t>
+  </si>
+  <si>
+    <t>列显示或隐藏</t>
+  </si>
+  <si>
+    <t>表格查询后刷新</t>
+  </si>
+  <si>
+    <t>复选框默认展示或者不展示</t>
+  </si>
+  <si>
+    <t>选项框选中调用</t>
+  </si>
+  <si>
+    <t>输入框</t>
+  </si>
+  <si>
+    <t>无选项框时不显示选中多少条</t>
+  </si>
+  <si>
+    <t>多次弹窗问题</t>
+  </si>
+  <si>
+    <t>a标签跳转</t>
+  </si>
+  <si>
+    <t>无分页/有分页</t>
+  </si>
+  <si>
+    <t>高度根据屏幕高度减去顶部及表单高度</t>
+  </si>
+  <si>
+    <t>table alert问题</t>
+  </si>
+  <si>
+    <t>表格合并</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>有上传返回样式</t>
+  </si>
+  <si>
+    <t>流程样式</t>
+  </si>
+  <si>
+    <t>弹窗</t>
+  </si>
+  <si>
+    <t>表单</t>
+  </si>
+  <si>
+    <t>展示</t>
+  </si>
+  <si>
+    <t>要有滚动条</t>
+  </si>
+  <si>
+    <t>登录后直接跳转至某页，左侧导航也要随之变动</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -120,6 +195,9 @@
   </si>
   <si>
     <t>ie兼容</t>
+  </si>
+  <si>
+    <t>双向跳转:点击跳转/导航跳转</t>
   </si>
 </sst>
 </file>
@@ -127,8 +205,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -141,122 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +243,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +372,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,169 +480,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +620,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,6 +692,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,63 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +881,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,6 +892,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1160,16 +1247,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375"/>
     <col min="6" max="6" width="50.625" customWidth="1"/>
@@ -1199,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>43905</v>
+        <v>43877</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1229,63 +1316,49 @@
       <c r="E4" s="2">
         <v>43905</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44276</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44276</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44276</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -1293,13 +1366,13 @@
       <c r="E8" s="2">
         <v>44276</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="6"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -1307,13 +1380,13 @@
       <c r="E9" s="2">
         <v>44276</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="6"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -1321,13 +1394,15 @@
       <c r="E10" s="2">
         <v>44276</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -1335,13 +1410,13 @@
       <c r="E11" s="2">
         <v>44276</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -1349,13 +1424,13 @@
       <c r="E12" s="2">
         <v>44276</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="6"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -1363,13 +1438,13 @@
       <c r="E13" s="2">
         <v>44276</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="6"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -1377,13 +1452,11 @@
       <c r="E14" s="2">
         <v>44276</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1391,60 +1464,72 @@
         <v>4</v>
       </c>
       <c r="E15" s="2">
-        <v>44278</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>44276</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="6"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2">
+        <v>44276</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44276</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
         <v>44278</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44278</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1452,17 +1537,20 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="7"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="3"/>
@@ -1471,17 +1559,20 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" customHeight="1" spans="2:6">
-      <c r="B24" s="1"/>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
@@ -1489,72 +1580,245 @@
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" customHeight="1" spans="4:6">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:6">
-      <c r="B29" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" customHeight="1" spans="4:6">
+      <c r="E29" s="2"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" customHeight="1" spans="4:6">
+      <c r="E30" s="2"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" customHeight="1" spans="4:6">
+      <c r="E31" s="2"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" customHeight="1" spans="4:6">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" customHeight="1" spans="4:6">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F7:F16"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F26:F45"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1565,13 +1829,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="C3 C2 F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
@@ -1582,10 +1846,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1599,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
         <v>44287</v>
@@ -1613,10 +1877,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>44285</v>
@@ -1627,9 +1891,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -205,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -219,8 +219,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -249,39 +272,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,8 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -340,9 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,13 +362,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -372,31 +372,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,139 +516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,30 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -660,8 +636,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,15 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,6 +691,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,19 +735,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,112 +756,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1324,8 +1324,12 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43928</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1334,8 +1338,12 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43928</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1344,8 +1352,12 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43928</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>

--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>是否完成</t>
   </si>
@@ -38,9 +38,6 @@
     <t>grid</t>
   </si>
   <si>
-    <t>栅格需要完善，增加xs</t>
-  </si>
-  <si>
     <t>xxl&gt;=1600</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
     <t>lg&gt;=992</t>
   </si>
   <si>
+    <t>浏览器变化，随之变化</t>
+  </si>
+  <si>
     <t>form</t>
   </si>
   <si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>输入框提示</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>必填提示</t>
   </si>
   <si>
     <t>选项卡</t>
@@ -205,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -220,8 +226,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,23 +248,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,35 +302,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,23 +341,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,32 +349,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,13 +378,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,122 +562,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -582,43 +588,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -629,65 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,8 +620,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,137 +704,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,15 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1316,13 +1276,13 @@
       <c r="E4" s="2">
         <v>43905</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1330,13 +1290,13 @@
       <c r="E5" s="2">
         <v>43928</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -1344,13 +1304,13 @@
       <c r="E6" s="2">
         <v>43928</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1358,33 +1318,27 @@
       <c r="E7" s="2">
         <v>43928</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44276</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -1398,7 +1352,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -1406,15 +1360,13 @@
       <c r="E10" s="2">
         <v>44276</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -1426,9 +1378,11 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -1442,7 +1396,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -1456,7 +1410,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -1470,7 +1424,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1484,7 +1438,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1498,7 +1452,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -1510,25 +1464,25 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -1540,40 +1494,50 @@
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44278</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44307</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>44300</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1583,254 +1547,300 @@
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44307</v>
+      </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44305</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44305</v>
+      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44307</v>
+      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" customHeight="1" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="3"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" customHeight="1" spans="1:6">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F26:F45"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A28"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F29:F48"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1858,10 +1868,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1875,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
         <v>44287</v>
@@ -1889,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>44285</v>
@@ -1903,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1912,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -225,32 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,15 +239,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,63 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,7 +286,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +587,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -598,6 +622,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,8 +652,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -631,26 +666,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,21 +684,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,16 +704,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,115 +722,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1578,8 +1578,12 @@
         <v>30</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44327</v>
+      </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">

--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>是否完成</t>
   </si>
@@ -41,15 +41,15 @@
     <t>xxl&gt;=1600</t>
   </si>
   <si>
+    <t>浏览器变化，随之变化</t>
+  </si>
+  <si>
     <t>xl&gt;=1200</t>
   </si>
   <si>
     <t>lg&gt;=992</t>
   </si>
   <si>
-    <t>浏览器变化，随之变化</t>
-  </si>
-  <si>
     <t>form</t>
   </si>
   <si>
@@ -101,6 +101,72 @@
     <t>datepci</t>
   </si>
   <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>格式、最大/小值</t>
+  </si>
+  <si>
+    <t>时间没有HH:mm</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>传输组形式</t>
+  </si>
+  <si>
+    <t>时间范围</t>
+  </si>
+  <si>
+    <t>昨天</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>三天前</t>
+  </si>
+  <si>
+    <t>年范围</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>一周前</t>
+  </si>
+  <si>
+    <t>年月</t>
+  </si>
+  <si>
+    <t>一月前</t>
+  </si>
+  <si>
+    <t>年月范围</t>
+  </si>
+  <si>
+    <t>最近一周</t>
+  </si>
+  <si>
+    <t>年月日</t>
+  </si>
+  <si>
+    <t>最近一个月</t>
+  </si>
+  <si>
+    <t>年月日范围</t>
+  </si>
+  <si>
+    <t>最近三个月</t>
+  </si>
+  <si>
+    <t>年月日时间</t>
+  </si>
+  <si>
+    <t>年月日时间范围</t>
+  </si>
+  <si>
     <t>checkbox</t>
   </si>
   <si>
@@ -183,6 +249,15 @@
   </si>
   <si>
     <t>登录后直接跳转至某页，左侧导航也要随之变动</t>
+  </si>
+  <si>
+    <t>思路</t>
+  </si>
+  <si>
+    <t>增加百分比宽度？</t>
+  </si>
+  <si>
+    <t>加载顺序问题</t>
   </si>
   <si>
     <t>序号</t>
@@ -212,16 +287,31 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,16 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -278,8 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +370,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +398,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -308,38 +406,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,8 +429,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,55 +460,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,61 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,66 +640,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -587,11 +669,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +717,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,27 +771,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -692,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,137 +823,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,11 +966,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,6 +1037,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1207,22 +1337,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="45.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375"/>
-    <col min="6" max="6" width="50.625" customWidth="1"/>
+    <col min="6" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1232,11 +1364,12 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1248,9 +1381,10 @@
       <c r="E2" s="2">
         <v>43877</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1262,26 +1396,32 @@
       <c r="E3" s="2">
         <v>43905</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>43905</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
+        <v>43928</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -1290,12 +1430,13 @@
       <c r="E5" s="2">
         <v>43928</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1304,41 +1445,48 @@
       <c r="E6" s="2">
         <v>43928</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>43928</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
+        <v>44276</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44276</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -1346,13 +1494,16 @@
       <c r="E9" s="2">
         <v>44276</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -1360,13 +1511,14 @@
       <c r="E10" s="2">
         <v>44276</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -1374,15 +1526,14 @@
       <c r="E11" s="2">
         <v>44276</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -1390,13 +1541,14 @@
       <c r="E12" s="2">
         <v>44276</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -1404,13 +1556,14 @@
       <c r="E13" s="2">
         <v>44276</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -1418,13 +1571,14 @@
       <c r="E14" s="2">
         <v>44276</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1432,13 +1586,14 @@
       <c r="E15" s="2">
         <v>44276</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:6">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1446,405 +1601,583 @@
       <c r="E16" s="2">
         <v>44276</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>44276</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
+        <v>44278</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2">
-        <v>44276</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
+        <v>44278</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="2">
-        <v>44278</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
+        <v>44307</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>44278</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
+        <v>44300</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2">
-        <v>44307</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2">
-        <v>44300</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44307</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="2">
-        <v>44305</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2">
-        <v>44327</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="2">
-        <v>44305</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:6">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
-        <v>44307</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44307</v>
+      </c>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44305</v>
+      </c>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:6">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44327</v>
+      </c>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:6">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44305</v>
+      </c>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:6">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44307</v>
+      </c>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:6">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
-      <c r="A37" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:6">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:6">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:6">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:6">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:6">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:6">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A28"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F29:F48"/>
+  <mergeCells count="14">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F21:F30"/>
+    <mergeCell ref="F36:F55"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I28"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1872,10 +2205,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1889,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2">
         <v>44287</v>
@@ -1903,10 +2236,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2">
         <v>44285</v>
@@ -1917,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1926,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/后台管理系统.xlsx
+++ b/后台管理系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24480" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>是否完成</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>双向跳转:点击跳转/导航跳转</t>
+  </si>
+  <si>
+    <t>默认选中三级菜单左侧导航收起样式存在问题</t>
   </si>
 </sst>
 </file>
@@ -287,8 +290,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -307,11 +310,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +340,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -337,16 +394,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,38 +431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,47 +446,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,187 +463,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +710,74 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -735,74 +806,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -811,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,133 +826,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1348,7 +1351,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="45.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375"/>
+    <col min="5" max="5" width="11.5"/>
     <col min="6" max="7" width="20.625" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
     <col min="9" max="9" width="15.875" customWidth="1"/>
@@ -2161,6 +2164,10 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:5">
+      <c r="B59"/>
+      <c r="E59" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2188,13 +2195,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
@@ -2262,6 +2269,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
